--- a/municipal/ENG/Business Sector/Pesronal Costs/Samegrelo-Zemo Svaneti/Mestia.xlsx
+++ b/municipal/ENG/Business Sector/Pesronal Costs/Samegrelo-Zemo Svaneti/Mestia.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCD21B2-A13B-46E0-AAF6-E09015B5B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mestia" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,20 @@
     <t>Mln. GEL</t>
   </si>
   <si>
-    <t>Personnel costs, Total</t>
+    <t>Personnel costs of business sector in Mestia Municipality</t>
   </si>
   <si>
-    <t>Personnel costs of business sector in Mestia Municipality</t>
+    <t>Personnel costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,9 +65,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="ARIAL"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -112,41 +118,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{92E1BCDB-4744-4186-BEE1-51F8C8FB3677}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{D997DCC4-AA9C-45DA-A1E1-FEFFB77B6CE6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -162,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,229 +464,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="5"/>
-    <col min="257" max="257" width="27.5703125" style="5" customWidth="1"/>
-    <col min="258" max="265" width="13" style="5" customWidth="1"/>
-    <col min="266" max="512" width="9.140625" style="5"/>
-    <col min="513" max="513" width="27.5703125" style="5" customWidth="1"/>
-    <col min="514" max="521" width="13" style="5" customWidth="1"/>
-    <col min="522" max="768" width="9.140625" style="5"/>
-    <col min="769" max="769" width="27.5703125" style="5" customWidth="1"/>
-    <col min="770" max="777" width="13" style="5" customWidth="1"/>
-    <col min="778" max="1024" width="9.140625" style="5"/>
-    <col min="1025" max="1025" width="27.5703125" style="5" customWidth="1"/>
-    <col min="1026" max="1033" width="13" style="5" customWidth="1"/>
-    <col min="1034" max="1280" width="9.140625" style="5"/>
-    <col min="1281" max="1281" width="27.5703125" style="5" customWidth="1"/>
-    <col min="1282" max="1289" width="13" style="5" customWidth="1"/>
-    <col min="1290" max="1536" width="9.140625" style="5"/>
-    <col min="1537" max="1537" width="27.5703125" style="5" customWidth="1"/>
-    <col min="1538" max="1545" width="13" style="5" customWidth="1"/>
-    <col min="1546" max="1792" width="9.140625" style="5"/>
-    <col min="1793" max="1793" width="27.5703125" style="5" customWidth="1"/>
-    <col min="1794" max="1801" width="13" style="5" customWidth="1"/>
-    <col min="1802" max="2048" width="9.140625" style="5"/>
-    <col min="2049" max="2049" width="27.5703125" style="5" customWidth="1"/>
-    <col min="2050" max="2057" width="13" style="5" customWidth="1"/>
-    <col min="2058" max="2304" width="9.140625" style="5"/>
-    <col min="2305" max="2305" width="27.5703125" style="5" customWidth="1"/>
-    <col min="2306" max="2313" width="13" style="5" customWidth="1"/>
-    <col min="2314" max="2560" width="9.140625" style="5"/>
-    <col min="2561" max="2561" width="27.5703125" style="5" customWidth="1"/>
-    <col min="2562" max="2569" width="13" style="5" customWidth="1"/>
-    <col min="2570" max="2816" width="9.140625" style="5"/>
-    <col min="2817" max="2817" width="27.5703125" style="5" customWidth="1"/>
-    <col min="2818" max="2825" width="13" style="5" customWidth="1"/>
-    <col min="2826" max="3072" width="9.140625" style="5"/>
-    <col min="3073" max="3073" width="27.5703125" style="5" customWidth="1"/>
-    <col min="3074" max="3081" width="13" style="5" customWidth="1"/>
-    <col min="3082" max="3328" width="9.140625" style="5"/>
-    <col min="3329" max="3329" width="27.5703125" style="5" customWidth="1"/>
-    <col min="3330" max="3337" width="13" style="5" customWidth="1"/>
-    <col min="3338" max="3584" width="9.140625" style="5"/>
-    <col min="3585" max="3585" width="27.5703125" style="5" customWidth="1"/>
-    <col min="3586" max="3593" width="13" style="5" customWidth="1"/>
-    <col min="3594" max="3840" width="9.140625" style="5"/>
-    <col min="3841" max="3841" width="27.5703125" style="5" customWidth="1"/>
-    <col min="3842" max="3849" width="13" style="5" customWidth="1"/>
-    <col min="3850" max="4096" width="9.140625" style="5"/>
-    <col min="4097" max="4097" width="27.5703125" style="5" customWidth="1"/>
-    <col min="4098" max="4105" width="13" style="5" customWidth="1"/>
-    <col min="4106" max="4352" width="9.140625" style="5"/>
-    <col min="4353" max="4353" width="27.5703125" style="5" customWidth="1"/>
-    <col min="4354" max="4361" width="13" style="5" customWidth="1"/>
-    <col min="4362" max="4608" width="9.140625" style="5"/>
-    <col min="4609" max="4609" width="27.5703125" style="5" customWidth="1"/>
-    <col min="4610" max="4617" width="13" style="5" customWidth="1"/>
-    <col min="4618" max="4864" width="9.140625" style="5"/>
-    <col min="4865" max="4865" width="27.5703125" style="5" customWidth="1"/>
-    <col min="4866" max="4873" width="13" style="5" customWidth="1"/>
-    <col min="4874" max="5120" width="9.140625" style="5"/>
-    <col min="5121" max="5121" width="27.5703125" style="5" customWidth="1"/>
-    <col min="5122" max="5129" width="13" style="5" customWidth="1"/>
-    <col min="5130" max="5376" width="9.140625" style="5"/>
-    <col min="5377" max="5377" width="27.5703125" style="5" customWidth="1"/>
-    <col min="5378" max="5385" width="13" style="5" customWidth="1"/>
-    <col min="5386" max="5632" width="9.140625" style="5"/>
-    <col min="5633" max="5633" width="27.5703125" style="5" customWidth="1"/>
-    <col min="5634" max="5641" width="13" style="5" customWidth="1"/>
-    <col min="5642" max="5888" width="9.140625" style="5"/>
-    <col min="5889" max="5889" width="27.5703125" style="5" customWidth="1"/>
-    <col min="5890" max="5897" width="13" style="5" customWidth="1"/>
-    <col min="5898" max="6144" width="9.140625" style="5"/>
-    <col min="6145" max="6145" width="27.5703125" style="5" customWidth="1"/>
-    <col min="6146" max="6153" width="13" style="5" customWidth="1"/>
-    <col min="6154" max="6400" width="9.140625" style="5"/>
-    <col min="6401" max="6401" width="27.5703125" style="5" customWidth="1"/>
-    <col min="6402" max="6409" width="13" style="5" customWidth="1"/>
-    <col min="6410" max="6656" width="9.140625" style="5"/>
-    <col min="6657" max="6657" width="27.5703125" style="5" customWidth="1"/>
-    <col min="6658" max="6665" width="13" style="5" customWidth="1"/>
-    <col min="6666" max="6912" width="9.140625" style="5"/>
-    <col min="6913" max="6913" width="27.5703125" style="5" customWidth="1"/>
-    <col min="6914" max="6921" width="13" style="5" customWidth="1"/>
-    <col min="6922" max="7168" width="9.140625" style="5"/>
-    <col min="7169" max="7169" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7170" max="7177" width="13" style="5" customWidth="1"/>
-    <col min="7178" max="7424" width="9.140625" style="5"/>
-    <col min="7425" max="7425" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7426" max="7433" width="13" style="5" customWidth="1"/>
-    <col min="7434" max="7680" width="9.140625" style="5"/>
-    <col min="7681" max="7681" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7682" max="7689" width="13" style="5" customWidth="1"/>
-    <col min="7690" max="7936" width="9.140625" style="5"/>
-    <col min="7937" max="7937" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7938" max="7945" width="13" style="5" customWidth="1"/>
-    <col min="7946" max="8192" width="9.140625" style="5"/>
-    <col min="8193" max="8193" width="27.5703125" style="5" customWidth="1"/>
-    <col min="8194" max="8201" width="13" style="5" customWidth="1"/>
-    <col min="8202" max="8448" width="9.140625" style="5"/>
-    <col min="8449" max="8449" width="27.5703125" style="5" customWidth="1"/>
-    <col min="8450" max="8457" width="13" style="5" customWidth="1"/>
-    <col min="8458" max="8704" width="9.140625" style="5"/>
-    <col min="8705" max="8705" width="27.5703125" style="5" customWidth="1"/>
-    <col min="8706" max="8713" width="13" style="5" customWidth="1"/>
-    <col min="8714" max="8960" width="9.140625" style="5"/>
-    <col min="8961" max="8961" width="27.5703125" style="5" customWidth="1"/>
-    <col min="8962" max="8969" width="13" style="5" customWidth="1"/>
-    <col min="8970" max="9216" width="9.140625" style="5"/>
-    <col min="9217" max="9217" width="27.5703125" style="5" customWidth="1"/>
-    <col min="9218" max="9225" width="13" style="5" customWidth="1"/>
-    <col min="9226" max="9472" width="9.140625" style="5"/>
-    <col min="9473" max="9473" width="27.5703125" style="5" customWidth="1"/>
-    <col min="9474" max="9481" width="13" style="5" customWidth="1"/>
-    <col min="9482" max="9728" width="9.140625" style="5"/>
-    <col min="9729" max="9729" width="27.5703125" style="5" customWidth="1"/>
-    <col min="9730" max="9737" width="13" style="5" customWidth="1"/>
-    <col min="9738" max="9984" width="9.140625" style="5"/>
-    <col min="9985" max="9985" width="27.5703125" style="5" customWidth="1"/>
-    <col min="9986" max="9993" width="13" style="5" customWidth="1"/>
-    <col min="9994" max="10240" width="9.140625" style="5"/>
-    <col min="10241" max="10241" width="27.5703125" style="5" customWidth="1"/>
-    <col min="10242" max="10249" width="13" style="5" customWidth="1"/>
-    <col min="10250" max="10496" width="9.140625" style="5"/>
-    <col min="10497" max="10497" width="27.5703125" style="5" customWidth="1"/>
-    <col min="10498" max="10505" width="13" style="5" customWidth="1"/>
-    <col min="10506" max="10752" width="9.140625" style="5"/>
-    <col min="10753" max="10753" width="27.5703125" style="5" customWidth="1"/>
-    <col min="10754" max="10761" width="13" style="5" customWidth="1"/>
-    <col min="10762" max="11008" width="9.140625" style="5"/>
-    <col min="11009" max="11009" width="27.5703125" style="5" customWidth="1"/>
-    <col min="11010" max="11017" width="13" style="5" customWidth="1"/>
-    <col min="11018" max="11264" width="9.140625" style="5"/>
-    <col min="11265" max="11265" width="27.5703125" style="5" customWidth="1"/>
-    <col min="11266" max="11273" width="13" style="5" customWidth="1"/>
-    <col min="11274" max="11520" width="9.140625" style="5"/>
-    <col min="11521" max="11521" width="27.5703125" style="5" customWidth="1"/>
-    <col min="11522" max="11529" width="13" style="5" customWidth="1"/>
-    <col min="11530" max="11776" width="9.140625" style="5"/>
-    <col min="11777" max="11777" width="27.5703125" style="5" customWidth="1"/>
-    <col min="11778" max="11785" width="13" style="5" customWidth="1"/>
-    <col min="11786" max="12032" width="9.140625" style="5"/>
-    <col min="12033" max="12033" width="27.5703125" style="5" customWidth="1"/>
-    <col min="12034" max="12041" width="13" style="5" customWidth="1"/>
-    <col min="12042" max="12288" width="9.140625" style="5"/>
-    <col min="12289" max="12289" width="27.5703125" style="5" customWidth="1"/>
-    <col min="12290" max="12297" width="13" style="5" customWidth="1"/>
-    <col min="12298" max="12544" width="9.140625" style="5"/>
-    <col min="12545" max="12545" width="27.5703125" style="5" customWidth="1"/>
-    <col min="12546" max="12553" width="13" style="5" customWidth="1"/>
-    <col min="12554" max="12800" width="9.140625" style="5"/>
-    <col min="12801" max="12801" width="27.5703125" style="5" customWidth="1"/>
-    <col min="12802" max="12809" width="13" style="5" customWidth="1"/>
-    <col min="12810" max="13056" width="9.140625" style="5"/>
-    <col min="13057" max="13057" width="27.5703125" style="5" customWidth="1"/>
-    <col min="13058" max="13065" width="13" style="5" customWidth="1"/>
-    <col min="13066" max="13312" width="9.140625" style="5"/>
-    <col min="13313" max="13313" width="27.5703125" style="5" customWidth="1"/>
-    <col min="13314" max="13321" width="13" style="5" customWidth="1"/>
-    <col min="13322" max="13568" width="9.140625" style="5"/>
-    <col min="13569" max="13569" width="27.5703125" style="5" customWidth="1"/>
-    <col min="13570" max="13577" width="13" style="5" customWidth="1"/>
-    <col min="13578" max="13824" width="9.140625" style="5"/>
-    <col min="13825" max="13825" width="27.5703125" style="5" customWidth="1"/>
-    <col min="13826" max="13833" width="13" style="5" customWidth="1"/>
-    <col min="13834" max="14080" width="9.140625" style="5"/>
-    <col min="14081" max="14081" width="27.5703125" style="5" customWidth="1"/>
-    <col min="14082" max="14089" width="13" style="5" customWidth="1"/>
-    <col min="14090" max="14336" width="9.140625" style="5"/>
-    <col min="14337" max="14337" width="27.5703125" style="5" customWidth="1"/>
-    <col min="14338" max="14345" width="13" style="5" customWidth="1"/>
-    <col min="14346" max="14592" width="9.140625" style="5"/>
-    <col min="14593" max="14593" width="27.5703125" style="5" customWidth="1"/>
-    <col min="14594" max="14601" width="13" style="5" customWidth="1"/>
-    <col min="14602" max="14848" width="9.140625" style="5"/>
-    <col min="14849" max="14849" width="27.5703125" style="5" customWidth="1"/>
-    <col min="14850" max="14857" width="13" style="5" customWidth="1"/>
-    <col min="14858" max="15104" width="9.140625" style="5"/>
-    <col min="15105" max="15105" width="27.5703125" style="5" customWidth="1"/>
-    <col min="15106" max="15113" width="13" style="5" customWidth="1"/>
-    <col min="15114" max="15360" width="9.140625" style="5"/>
-    <col min="15361" max="15361" width="27.5703125" style="5" customWidth="1"/>
-    <col min="15362" max="15369" width="13" style="5" customWidth="1"/>
-    <col min="15370" max="15616" width="9.140625" style="5"/>
-    <col min="15617" max="15617" width="27.5703125" style="5" customWidth="1"/>
-    <col min="15618" max="15625" width="13" style="5" customWidth="1"/>
-    <col min="15626" max="15872" width="9.140625" style="5"/>
-    <col min="15873" max="15873" width="27.5703125" style="5" customWidth="1"/>
-    <col min="15874" max="15881" width="13" style="5" customWidth="1"/>
-    <col min="15882" max="16128" width="9.140625" style="5"/>
-    <col min="16129" max="16129" width="27.5703125" style="5" customWidth="1"/>
-    <col min="16130" max="16137" width="13" style="5" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="3"/>
+    <col min="257" max="257" width="27.5703125" style="3" customWidth="1"/>
+    <col min="258" max="265" width="13" style="3" customWidth="1"/>
+    <col min="266" max="512" width="9.140625" style="3"/>
+    <col min="513" max="513" width="27.5703125" style="3" customWidth="1"/>
+    <col min="514" max="521" width="13" style="3" customWidth="1"/>
+    <col min="522" max="768" width="9.140625" style="3"/>
+    <col min="769" max="769" width="27.5703125" style="3" customWidth="1"/>
+    <col min="770" max="777" width="13" style="3" customWidth="1"/>
+    <col min="778" max="1024" width="9.140625" style="3"/>
+    <col min="1025" max="1025" width="27.5703125" style="3" customWidth="1"/>
+    <col min="1026" max="1033" width="13" style="3" customWidth="1"/>
+    <col min="1034" max="1280" width="9.140625" style="3"/>
+    <col min="1281" max="1281" width="27.5703125" style="3" customWidth="1"/>
+    <col min="1282" max="1289" width="13" style="3" customWidth="1"/>
+    <col min="1290" max="1536" width="9.140625" style="3"/>
+    <col min="1537" max="1537" width="27.5703125" style="3" customWidth="1"/>
+    <col min="1538" max="1545" width="13" style="3" customWidth="1"/>
+    <col min="1546" max="1792" width="9.140625" style="3"/>
+    <col min="1793" max="1793" width="27.5703125" style="3" customWidth="1"/>
+    <col min="1794" max="1801" width="13" style="3" customWidth="1"/>
+    <col min="1802" max="2048" width="9.140625" style="3"/>
+    <col min="2049" max="2049" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2050" max="2057" width="13" style="3" customWidth="1"/>
+    <col min="2058" max="2304" width="9.140625" style="3"/>
+    <col min="2305" max="2305" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2306" max="2313" width="13" style="3" customWidth="1"/>
+    <col min="2314" max="2560" width="9.140625" style="3"/>
+    <col min="2561" max="2561" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2562" max="2569" width="13" style="3" customWidth="1"/>
+    <col min="2570" max="2816" width="9.140625" style="3"/>
+    <col min="2817" max="2817" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2818" max="2825" width="13" style="3" customWidth="1"/>
+    <col min="2826" max="3072" width="9.140625" style="3"/>
+    <col min="3073" max="3073" width="27.5703125" style="3" customWidth="1"/>
+    <col min="3074" max="3081" width="13" style="3" customWidth="1"/>
+    <col min="3082" max="3328" width="9.140625" style="3"/>
+    <col min="3329" max="3329" width="27.5703125" style="3" customWidth="1"/>
+    <col min="3330" max="3337" width="13" style="3" customWidth="1"/>
+    <col min="3338" max="3584" width="9.140625" style="3"/>
+    <col min="3585" max="3585" width="27.5703125" style="3" customWidth="1"/>
+    <col min="3586" max="3593" width="13" style="3" customWidth="1"/>
+    <col min="3594" max="3840" width="9.140625" style="3"/>
+    <col min="3841" max="3841" width="27.5703125" style="3" customWidth="1"/>
+    <col min="3842" max="3849" width="13" style="3" customWidth="1"/>
+    <col min="3850" max="4096" width="9.140625" style="3"/>
+    <col min="4097" max="4097" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4098" max="4105" width="13" style="3" customWidth="1"/>
+    <col min="4106" max="4352" width="9.140625" style="3"/>
+    <col min="4353" max="4353" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4354" max="4361" width="13" style="3" customWidth="1"/>
+    <col min="4362" max="4608" width="9.140625" style="3"/>
+    <col min="4609" max="4609" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4610" max="4617" width="13" style="3" customWidth="1"/>
+    <col min="4618" max="4864" width="9.140625" style="3"/>
+    <col min="4865" max="4865" width="27.5703125" style="3" customWidth="1"/>
+    <col min="4866" max="4873" width="13" style="3" customWidth="1"/>
+    <col min="4874" max="5120" width="9.140625" style="3"/>
+    <col min="5121" max="5121" width="27.5703125" style="3" customWidth="1"/>
+    <col min="5122" max="5129" width="13" style="3" customWidth="1"/>
+    <col min="5130" max="5376" width="9.140625" style="3"/>
+    <col min="5377" max="5377" width="27.5703125" style="3" customWidth="1"/>
+    <col min="5378" max="5385" width="13" style="3" customWidth="1"/>
+    <col min="5386" max="5632" width="9.140625" style="3"/>
+    <col min="5633" max="5633" width="27.5703125" style="3" customWidth="1"/>
+    <col min="5634" max="5641" width="13" style="3" customWidth="1"/>
+    <col min="5642" max="5888" width="9.140625" style="3"/>
+    <col min="5889" max="5889" width="27.5703125" style="3" customWidth="1"/>
+    <col min="5890" max="5897" width="13" style="3" customWidth="1"/>
+    <col min="5898" max="6144" width="9.140625" style="3"/>
+    <col min="6145" max="6145" width="27.5703125" style="3" customWidth="1"/>
+    <col min="6146" max="6153" width="13" style="3" customWidth="1"/>
+    <col min="6154" max="6400" width="9.140625" style="3"/>
+    <col min="6401" max="6401" width="27.5703125" style="3" customWidth="1"/>
+    <col min="6402" max="6409" width="13" style="3" customWidth="1"/>
+    <col min="6410" max="6656" width="9.140625" style="3"/>
+    <col min="6657" max="6657" width="27.5703125" style="3" customWidth="1"/>
+    <col min="6658" max="6665" width="13" style="3" customWidth="1"/>
+    <col min="6666" max="6912" width="9.140625" style="3"/>
+    <col min="6913" max="6913" width="27.5703125" style="3" customWidth="1"/>
+    <col min="6914" max="6921" width="13" style="3" customWidth="1"/>
+    <col min="6922" max="7168" width="9.140625" style="3"/>
+    <col min="7169" max="7169" width="27.5703125" style="3" customWidth="1"/>
+    <col min="7170" max="7177" width="13" style="3" customWidth="1"/>
+    <col min="7178" max="7424" width="9.140625" style="3"/>
+    <col min="7425" max="7425" width="27.5703125" style="3" customWidth="1"/>
+    <col min="7426" max="7433" width="13" style="3" customWidth="1"/>
+    <col min="7434" max="7680" width="9.140625" style="3"/>
+    <col min="7681" max="7681" width="27.5703125" style="3" customWidth="1"/>
+    <col min="7682" max="7689" width="13" style="3" customWidth="1"/>
+    <col min="7690" max="7936" width="9.140625" style="3"/>
+    <col min="7937" max="7937" width="27.5703125" style="3" customWidth="1"/>
+    <col min="7938" max="7945" width="13" style="3" customWidth="1"/>
+    <col min="7946" max="8192" width="9.140625" style="3"/>
+    <col min="8193" max="8193" width="27.5703125" style="3" customWidth="1"/>
+    <col min="8194" max="8201" width="13" style="3" customWidth="1"/>
+    <col min="8202" max="8448" width="9.140625" style="3"/>
+    <col min="8449" max="8449" width="27.5703125" style="3" customWidth="1"/>
+    <col min="8450" max="8457" width="13" style="3" customWidth="1"/>
+    <col min="8458" max="8704" width="9.140625" style="3"/>
+    <col min="8705" max="8705" width="27.5703125" style="3" customWidth="1"/>
+    <col min="8706" max="8713" width="13" style="3" customWidth="1"/>
+    <col min="8714" max="8960" width="9.140625" style="3"/>
+    <col min="8961" max="8961" width="27.5703125" style="3" customWidth="1"/>
+    <col min="8962" max="8969" width="13" style="3" customWidth="1"/>
+    <col min="8970" max="9216" width="9.140625" style="3"/>
+    <col min="9217" max="9217" width="27.5703125" style="3" customWidth="1"/>
+    <col min="9218" max="9225" width="13" style="3" customWidth="1"/>
+    <col min="9226" max="9472" width="9.140625" style="3"/>
+    <col min="9473" max="9473" width="27.5703125" style="3" customWidth="1"/>
+    <col min="9474" max="9481" width="13" style="3" customWidth="1"/>
+    <col min="9482" max="9728" width="9.140625" style="3"/>
+    <col min="9729" max="9729" width="27.5703125" style="3" customWidth="1"/>
+    <col min="9730" max="9737" width="13" style="3" customWidth="1"/>
+    <col min="9738" max="9984" width="9.140625" style="3"/>
+    <col min="9985" max="9985" width="27.5703125" style="3" customWidth="1"/>
+    <col min="9986" max="9993" width="13" style="3" customWidth="1"/>
+    <col min="9994" max="10240" width="9.140625" style="3"/>
+    <col min="10241" max="10241" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10242" max="10249" width="13" style="3" customWidth="1"/>
+    <col min="10250" max="10496" width="9.140625" style="3"/>
+    <col min="10497" max="10497" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10498" max="10505" width="13" style="3" customWidth="1"/>
+    <col min="10506" max="10752" width="9.140625" style="3"/>
+    <col min="10753" max="10753" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10754" max="10761" width="13" style="3" customWidth="1"/>
+    <col min="10762" max="11008" width="9.140625" style="3"/>
+    <col min="11009" max="11009" width="27.5703125" style="3" customWidth="1"/>
+    <col min="11010" max="11017" width="13" style="3" customWidth="1"/>
+    <col min="11018" max="11264" width="9.140625" style="3"/>
+    <col min="11265" max="11265" width="27.5703125" style="3" customWidth="1"/>
+    <col min="11266" max="11273" width="13" style="3" customWidth="1"/>
+    <col min="11274" max="11520" width="9.140625" style="3"/>
+    <col min="11521" max="11521" width="27.5703125" style="3" customWidth="1"/>
+    <col min="11522" max="11529" width="13" style="3" customWidth="1"/>
+    <col min="11530" max="11776" width="9.140625" style="3"/>
+    <col min="11777" max="11777" width="27.5703125" style="3" customWidth="1"/>
+    <col min="11778" max="11785" width="13" style="3" customWidth="1"/>
+    <col min="11786" max="12032" width="9.140625" style="3"/>
+    <col min="12033" max="12033" width="27.5703125" style="3" customWidth="1"/>
+    <col min="12034" max="12041" width="13" style="3" customWidth="1"/>
+    <col min="12042" max="12288" width="9.140625" style="3"/>
+    <col min="12289" max="12289" width="27.5703125" style="3" customWidth="1"/>
+    <col min="12290" max="12297" width="13" style="3" customWidth="1"/>
+    <col min="12298" max="12544" width="9.140625" style="3"/>
+    <col min="12545" max="12545" width="27.5703125" style="3" customWidth="1"/>
+    <col min="12546" max="12553" width="13" style="3" customWidth="1"/>
+    <col min="12554" max="12800" width="9.140625" style="3"/>
+    <col min="12801" max="12801" width="27.5703125" style="3" customWidth="1"/>
+    <col min="12802" max="12809" width="13" style="3" customWidth="1"/>
+    <col min="12810" max="13056" width="9.140625" style="3"/>
+    <col min="13057" max="13057" width="27.5703125" style="3" customWidth="1"/>
+    <col min="13058" max="13065" width="13" style="3" customWidth="1"/>
+    <col min="13066" max="13312" width="9.140625" style="3"/>
+    <col min="13313" max="13313" width="27.5703125" style="3" customWidth="1"/>
+    <col min="13314" max="13321" width="13" style="3" customWidth="1"/>
+    <col min="13322" max="13568" width="9.140625" style="3"/>
+    <col min="13569" max="13569" width="27.5703125" style="3" customWidth="1"/>
+    <col min="13570" max="13577" width="13" style="3" customWidth="1"/>
+    <col min="13578" max="13824" width="9.140625" style="3"/>
+    <col min="13825" max="13825" width="27.5703125" style="3" customWidth="1"/>
+    <col min="13826" max="13833" width="13" style="3" customWidth="1"/>
+    <col min="13834" max="14080" width="9.140625" style="3"/>
+    <col min="14081" max="14081" width="27.5703125" style="3" customWidth="1"/>
+    <col min="14082" max="14089" width="13" style="3" customWidth="1"/>
+    <col min="14090" max="14336" width="9.140625" style="3"/>
+    <col min="14337" max="14337" width="27.5703125" style="3" customWidth="1"/>
+    <col min="14338" max="14345" width="13" style="3" customWidth="1"/>
+    <col min="14346" max="14592" width="9.140625" style="3"/>
+    <col min="14593" max="14593" width="27.5703125" style="3" customWidth="1"/>
+    <col min="14594" max="14601" width="13" style="3" customWidth="1"/>
+    <col min="14602" max="14848" width="9.140625" style="3"/>
+    <col min="14849" max="14849" width="27.5703125" style="3" customWidth="1"/>
+    <col min="14850" max="14857" width="13" style="3" customWidth="1"/>
+    <col min="14858" max="15104" width="9.140625" style="3"/>
+    <col min="15105" max="15105" width="27.5703125" style="3" customWidth="1"/>
+    <col min="15106" max="15113" width="13" style="3" customWidth="1"/>
+    <col min="15114" max="15360" width="9.140625" style="3"/>
+    <col min="15361" max="15361" width="27.5703125" style="3" customWidth="1"/>
+    <col min="15362" max="15369" width="13" style="3" customWidth="1"/>
+    <col min="15370" max="15616" width="9.140625" style="3"/>
+    <col min="15617" max="15617" width="27.5703125" style="3" customWidth="1"/>
+    <col min="15618" max="15625" width="13" style="3" customWidth="1"/>
+    <col min="15626" max="15872" width="9.140625" style="3"/>
+    <col min="15873" max="15873" width="27.5703125" style="3" customWidth="1"/>
+    <col min="15874" max="15881" width="13" style="3" customWidth="1"/>
+    <col min="15882" max="16128" width="9.140625" style="3"/>
+    <col min="16129" max="16129" width="27.5703125" style="3" customWidth="1"/>
+    <col min="16130" max="16137" width="13" style="3" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="6">
         <v>2014</v>
       </c>
@@ -694,40 +709,43 @@
       <c r="I3" s="7">
         <v>2021</v>
       </c>
+      <c r="J3" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="C4" s="9">
         <v>2.9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>19</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>16</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>4.5</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/municipal/ENG/Business Sector/Pesronal Costs/Samegrelo-Zemo Svaneti/Mestia.xlsx
+++ b/municipal/ENG/Business Sector/Pesronal Costs/Samegrelo-Zemo Svaneti/Mestia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCD21B2-A13B-46E0-AAF6-E09015B5B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07893C5D-939F-48D0-BB7B-FD3976FE19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mestia" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +254,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,9 +306,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,7 +699,7 @@
     <col min="16138" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -678,12 +712,12 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="6">
         <v>2014</v>
@@ -712,8 +746,11 @@
       <c r="J3" s="7">
         <v>2022</v>
       </c>
+      <c r="K3" s="7">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,6 +780,9 @@
       </c>
       <c r="J4" s="8">
         <v>5.5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>13.9</v>
       </c>
     </row>
   </sheetData>
